--- a/Hackathon_cabBooking/src/test/java/com/datatables/BookingData.xlsx
+++ b/Hackathon_cabBooking/src/test/java/com/datatables/BookingData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="55">
   <si>
     <t>Booking Type</t>
   </si>
@@ -640,7 +640,7 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
